--- a/biology/Botanique/Genista_corsica/Genista_corsica.xlsx
+++ b/biology/Botanique/Genista_corsica/Genista_corsica.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Le genêt de Corse  (Genista corsica) est une espèce végétale de la famille des Fabaceae, originaire de la Corse et de la Sardaigne.
 </t>
@@ -511,10 +523,12 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">C'est un arbrisseau épineux, érigé (20 - 80 cm de haut), très ramifié, en partie en forme de coussinet,
-Ses branches[1] sont d'un brun rouge, fourchues, nues ou velues, alternes à fortes épines (3 à 5 mm de long), écartées latéralement. Ses feuilles supérieures sont simples, celles inférieures par 3, au pétiole court, spatulé ou allongé.
+Ses branches sont d'un brun rouge, fourchues, nues ou velues, alternes à fortes épines (3 à 5 mm de long), écartées latéralement. Ses feuilles supérieures sont simples, celles inférieures par 3, au pétiole court, spatulé ou allongé.
 Les fleurs sont jaunes, de 7 à 10mm de long, à pédoncule court avec petites bractées, isolées ou par touffes de 2 à 6. Etendard, carène et ailes sont de même longueur ; calice à 2 lèvres frangées de poils. Les gousses ont une longueur de 15 à 30 mm, sont allongées, lancéolées, pointues, nues à 3 à 8 graines.
 </t>
         </is>
@@ -544,7 +558,9 @@
           <t>Répartition et habitat</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">C'est une plante du maquis et des buissons, présent du niveau de la mer jusqu'à 1 600 m d'altitude.
 Elle est endémique aux îles de Corse et Sardaigne.
